--- a/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st01.xlsx
+++ b/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st01.xlsx
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="スワイヤー"]  知ってるならどうしてを呼んできだのよ。わざとじゃないなんて言い訳は通用しないわよ！？
+    <t xml:space="preserve">[name="スワイヤー"]  知ってるならどうして呼んできだのよ。わざとじゃないなんて言い訳は通用しないわよ！？
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  And Missy, are you one to talk? Didn't you just come back from the L.G.D.? I heard you opening and slamming the door. That one travelled.
+    <t xml:space="preserve">[name="Hoshiguma"]  And Missy, are you one to talk? Didn't you just come back from the L.G.D.? I heard you opening and slamming the door. That one traveled.
 </t>
   </si>
   <si>
@@ -2328,31 +2328,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Miss Ch'en is no fossilized bonehead.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Nor blindly headstrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Ah, who's there? You're... Lady ShiraYuki.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  (Nods)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Madame Hoshiguma.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  I don't need the title. How come you're here, Lady ShiraYuki?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  The Madam is away. My orders, to protect thee.
+    <t xml:space="preserve">[name="Shirayuki"]  Miss Ch'en is no fossilized bonehead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Nor blindly headstrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Ah, who's there? You're... Lady Shirayuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  (Nods)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Madame Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don't need the title. How come you're here, Lady Shirayuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  The Madam is away. My orders, to protect thee.
 </t>
   </si>
   <si>
@@ -2360,7 +2360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Lady ShiraYuki, I heard the Madam recently assigned you to Rhodes Island?
+    <t xml:space="preserve">[name="Hoshiguma"]  Lady Shirayuki, I heard the Madam recently assigned you to Rhodes Island?
 </t>
   </si>
   <si>
@@ -2368,15 +2368,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  In plentiful vigor, spirits held high.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Raucous blather.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Loud sort.
+    <t xml:space="preserve">[name="Shirayuki"]  In plentiful vigor, spirits held high.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Raucous blather.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Loud sort.
 </t>
   </si>
   <si>
@@ -2384,23 +2384,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  It seems like you have a pretty nice impression of Rhodes Island, Lady ShiraYuki.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Truly, Rhodes Island is agreeable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  As goes for Miss Ch'en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ...Thou needn't dwell.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  What, so now even Lady ShiraYuki's saying it... You're not telling me I've got worry written across my entire face? Seriously?
+    <t xml:space="preserve">[name="Hoshiguma"]  It seems like you have a pretty nice impression of Rhodes Island, Lady Shirayuki.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Truly, Rhodes Island is agreeable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  As goes for Miss Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  ...Thou needn't dwell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  What, so now even Lady Shirayuki's saying it... You're not telling me I've got worry written across my entire face? Seriously?
 </t>
   </si>
   <si>
@@ -2408,11 +2408,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  It's okay, Lady ShiraYuki. I'm not worried about Ch'en, that's the truth.
+    <t xml:space="preserve">[name="Shirayuki"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It's okay, Lady Shirayuki. I'm not worried about Ch'en, that's the truth.
 </t>
   </si>
   <si>
@@ -2424,15 +2424,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Intelligent and sharp-witted is Miss Ch'en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Tongue incisive, and her action ne'er pales.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  The commonfolk cannot hope to cheat her.
+    <t xml:space="preserve">[name="Shirayuki"]  Intelligent and sharp-witted is Miss Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Tongue incisive, and her action ne'er pales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  The commonfolk cannot hope to cheat her.
 </t>
   </si>
   <si>
@@ -2444,7 +2444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Miss Ch'en... is unreserved.
+    <t xml:space="preserve">[name="Shirayuki"]  Miss Ch'en... is unreserved.
 </t>
   </si>
   <si>
@@ -2480,19 +2480,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Miss Ch'en's soul is wide.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Rid of her chest's weight, she is ever more unstoppable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  You see clearly, Lady ShiraYuki. And Master Wei and the Madam see even more plainly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  You too, Madame Hoshiguma, are chivalrous.
+    <t xml:space="preserve">[name="Shirayuki"]  Miss Ch'en's soul is wide.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Rid of her chest's weight, she is ever more unstoppable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You see clearly, Lady Shirayuki. And Master Wei and the Madam see even more plainly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  You too, Madame Hoshiguma, are chivalrous.
 </t>
   </si>
   <si>
@@ -2520,11 +2520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  One cannot undervalue oneself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  If you may see this.
+    <t xml:space="preserve">[name="Shirayuki"]  One cannot undervalue oneself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  If you may see this.
 </t>
   </si>
   <si>
@@ -2532,11 +2532,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Tai Kam Road, Second Lane bookstore. This month's new publication.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  A present for thee.
+    <t xml:space="preserve">[name="Shirayuki"]  Tai Kam Road, Second Lane bookstore. This month's new publication.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  A present for thee.
 </t>
   </si>
   <si>
@@ -2544,15 +2544,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]  Much thanks. Though I'm surprised. You read this, Lady ShiraYuki?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Madame will know at a gloss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="ShiraYuki"]  Then. I, ShiraYuki, take my leave.
+    <t xml:space="preserve">[name="Hoshiguma"]  Much thanks. Though I'm surprised. You read this, Lady Shirayuki?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Madame will know at a gloss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shirayuki"]  Then. I, Shirayuki, take my leave.
 </t>
   </si>
   <si>
